--- a/medicine/Enfance/Elizabeth_Laird_(auteur)/Elizabeth_Laird_(auteur).xlsx
+++ b/medicine/Enfance/Elizabeth_Laird_(auteur)/Elizabeth_Laird_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elizabeth Laird (née en 1943) est une auteur britannique de romans pour enfants et de voyages. Elle est également connue pour le grand corpus de contes qu'elle a relevés en Éthiopie. Ses livres ont été traduits en quinze langues[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabeth Laird (née en 1943) est une auteur britannique de romans pour enfants et de voyages. Elle est également connue pour le grand corpus de contes qu'elle a relevés en Éthiopie. Ses livres ont été traduits en quinze langues.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Quelques ouvrages traduits en français
-Le Livre des anniversaires, illustrations de Satomi Ichikawa, Paris, Éditions Gautier-Languereau, 1987
+          <t>Quelques ouvrages traduits en français</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Livre des anniversaires, illustrations de Satomi Ichikawa, Paris, Éditions Gautier-Languereau, 1987
 Joue avec la famille Ours, ill. Carolyn Scrace, traduction de Renée Chaspoul, éd. Rouge et or, 1988
 Le petit tracteur, ill. de Colin Reeder , Éd. Ouest-France, 1990
 Le Jardin de Rosie, illustrations de Satomi Ichikawa, Paris, Éditions Gründ, 1992
@@ -522,9 +539,43 @@
 Si loin de mon pays, ill. de Jean-Michel Payet, trad. de l'anglais par Janine Hérisson, Gallimard jeunesse, 1995
 L’hiver de Rosie, illustrations de Satomi Ichikawa, Paris, Éditions Gründ, 1997
 Une amitié secrète, ill. de Jason Cockcroft, trad. de l'anglais par Diane Ménard, Gallimard jeunesse, 1998
-Le garçon qui courait plus vite que ses rêves (The fastest boy in the world), traduit de l'anglais par Catherine Guillet, Flammarion, 2016
-Jeunes adultes
-Red Sky in the Morning aka Loving Ben (1988)
+Le garçon qui courait plus vite que ses rêves (The fastest boy in the world), traduit de l'anglais par Catherine Guillet, Flammarion, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres partielles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jeunes adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Red Sky in the Morning aka Loving Ben (1988)
 Kiss the Dust (1991)
 Hiding Out (1993)
 Jay (1997)
@@ -538,44 +589,114 @@
 Lost Riders (2008)
 The Witching Hour (2009)
 The Betrayal of Maggie Blair (2011)
-The Prince who Walked with Lions (2012), about Prince Alemayehu
-Livres d'images
-Rosy's Garden (1979)
+The Prince who Walked with Lions (2012), about Prince Alemayehu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres partielles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres d'images</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rosy's Garden (1979)
 A Book of Promises (1999)
-Beautiful Bananas (2004)
-Nouvelles
-Me and My Electric (1998)
+Beautiful Bananas (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elizabeth_Laird_(auteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres partielles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Me and My Electric (1998)
 Hot Rock Mountain (2004)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Elizabeth_Laird_(auteur)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elizabeth_Laird_(auteur)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Finaliste Médaille Carnegie 2015[2] pour The Fastest Boy in the World</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Finaliste Médaille Carnegie 2015 pour The Fastest Boy in the World</t>
         </is>
       </c>
     </row>
